--- a/Results/Excess_SBM.xlsx
+++ b/Results/Excess_SBM.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="11">
   <si>
     <t>Row</t>
   </si>
@@ -66,7 +66,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="41">
     <border>
       <left/>
       <right/>
@@ -86,11 +86,39 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -104,6 +132,34 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -125,27 +181,27 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="39" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2">
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="39" t="s">
         <v>1</v>
       </c>
       <c r="E2">
@@ -165,7 +221,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="39" t="s">
         <v>2</v>
       </c>
       <c r="E3">
@@ -185,7 +241,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="39" t="s">
         <v>3</v>
       </c>
       <c r="E4">
@@ -205,7 +261,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="39" t="s">
         <v>4</v>
       </c>
       <c r="E5">
@@ -225,7 +281,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="39" t="s">
         <v>5</v>
       </c>
       <c r="E6">
